--- a/data/reports/W47_2025.xlsx
+++ b/data/reports/W47_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55F8627-A32E-4367-8F18-0D41DB9EACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E268A1-08BC-44BB-9ED1-B37BBB2BE6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,13 +189,13 @@
     <t>Last updated 1 Nov, 15:00</t>
   </si>
   <si>
-    <t>Extreme</t>
-  </si>
-  <si>
     <t>COP 47</t>
   </si>
   <si>
     <t xml:space="preserve"> | 4-11 Nov 2026</t>
+  </si>
+  <si>
+    <t>Very high</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>50</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="43.55" customHeight="1" x14ac:dyDescent="0.3">
@@ -690,7 +690,7 @@
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -710,7 +710,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="5" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="6" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -761,7 +761,7 @@
     </row>
     <row r="7" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
